--- a/Team-Data/2011-12/3-18-2011-12.xlsx
+++ b/Team-Data/2011-12/3-18-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.578</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.725</v>
@@ -720,34 +787,34 @@
         <v>21.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -759,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -801,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
@@ -813,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -992,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-12.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1174,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1387,7 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1412,28 +1479,28 @@
         <v>34.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.704</v>
+        <v>0.702</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
@@ -1442,7 +1509,7 @@
         <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
@@ -1451,7 +1518,7 @@
         <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>4.4</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1496,16 +1563,16 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
         <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>5</v>
@@ -1517,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1535,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1666,13 +1733,13 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1684,10 +1751,10 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
@@ -1717,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
         <v>11</v>
@@ -1726,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1854,19 +1921,19 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J9" t="n">
         <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M9" t="n">
         <v>12.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.329</v>
+        <v>0.335</v>
       </c>
       <c r="O9" t="n">
         <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
         <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2039,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,22 +2115,22 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR9" t="n">
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>27</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2233,10 +2300,10 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>25</v>
       </c>
       <c r="AQ10" t="n">
         <v>12</v>
@@ -2257,16 +2324,16 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.522</v>
+        <v>0.533</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J11" t="n">
         <v>82.90000000000001</v>
@@ -2328,13 +2395,13 @@
         <v>0.453</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
@@ -2343,16 +2410,16 @@
         <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U11" t="n">
         <v>20.8</v>
@@ -2364,7 +2431,7 @@
         <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
         <v>4.9</v>
@@ -2376,25 +2443,25 @@
         <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
         <v>14</v>
       </c>
-      <c r="AF11" t="n">
-        <v>15</v>
-      </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2406,16 +2473,16 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2427,19 +2494,19 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2448,13 +2515,13 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
@@ -2594,19 +2661,19 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2618,10 +2685,10 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
         <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
         <v>0.6899999999999999</v>
@@ -2722,7 +2789,7 @@
         <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W13" t="n">
         <v>8</v>
@@ -2731,25 +2798,25 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2782,22 +2849,22 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2806,13 +2873,13 @@
         <v>14</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2821,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.622</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48.7</v>
@@ -2868,7 +2935,7 @@
         <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.453</v>
@@ -2877,25 +2944,25 @@
         <v>5.3</v>
       </c>
       <c r="M14" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.306</v>
+        <v>0.309</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S14" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T14" t="n">
         <v>45.8</v>
@@ -2904,7 +2971,7 @@
         <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>6.1</v>
@@ -2916,19 +2983,19 @@
         <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB14" t="n">
         <v>95.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>11</v>
@@ -2961,16 +3028,16 @@
         <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2997,13 +3064,13 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,88 +3117,88 @@
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.321</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V15" t="n">
         <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="X15" t="n">
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,34 +3210,34 @@
         <v>27</v>
       </c>
       <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR15" t="n">
         <v>11</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
@@ -3179,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.482</v>
+        <v>0.483</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P16" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
         <v>0.776</v>
@@ -3259,7 +3326,7 @@
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T16" t="n">
         <v>42.3</v>
@@ -3268,7 +3335,7 @@
         <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3283,16 +3350,16 @@
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3337,7 +3404,7 @@
         <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
@@ -3352,13 +3419,13 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
         <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
         <v>25</v>
@@ -3513,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
         <v>3</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.478</v>
+        <v>0.489</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.435</v>
@@ -3605,34 +3672,34 @@
         <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
         <v>20</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T18" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U18" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3647,19 +3714,19 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB18" t="n">
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
@@ -3668,13 +3735,13 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3683,19 +3750,19 @@
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3731,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3883,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>28</v>
@@ -3892,10 +3959,10 @@
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
@@ -3907,13 +3974,13 @@
         <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
@@ -4062,7 +4129,7 @@
         <v>14</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4250,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>22</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC21" t="n">
         <v>14</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="O22" t="n">
         <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.793</v>
+        <v>0.797</v>
       </c>
       <c r="R22" t="n">
         <v>10.6</v>
@@ -4357,7 +4424,7 @@
         <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V22" t="n">
         <v>16.6</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4411,10 +4478,10 @@
         <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>21</v>
@@ -4435,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.63</v>
+        <v>0.644</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J23" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
@@ -4518,40 +4585,40 @@
         <v>26.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P23" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.648</v>
+        <v>0.649</v>
       </c>
       <c r="R23" t="n">
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.2</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4.3</v>
       </c>
       <c r="Z23" t="n">
         <v>17.9</v>
@@ -4560,13 +4627,13 @@
         <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,10 +4666,10 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,16 +4678,16 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>6.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4760,7 +4827,7 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O25" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P25" t="n">
         <v>20.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
@@ -4900,13 +4967,13 @@
         <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U25" t="n">
         <v>22.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
@@ -4927,16 +4994,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -4948,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
@@ -4963,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -4978,16 +5045,16 @@
         <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
         <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.467</v>
+        <v>0.477</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>6.6</v>
@@ -5064,28 +5131,28 @@
         <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O26" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V26" t="n">
         <v>14.4</v>
@@ -5094,25 +5161,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5136,19 +5203,19 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,37 +5224,37 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV26" t="n">
         <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.356</v>
+        <v>0.341</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
         <v>23.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S27" t="n">
         <v>29.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U27" t="n">
         <v>18.3</v>
@@ -5273,7 +5340,7 @@
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5288,40 +5355,40 @@
         <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
         <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>23</v>
@@ -5330,10 +5397,10 @@
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5345,19 +5412,19 @@
         <v>11</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>12</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5670,13 +5737,13 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5688,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5706,13 +5773,13 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5721,13 +5788,13 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J30" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K30" t="n">
         <v>0.454</v>
@@ -5789,19 +5856,19 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.304</v>
+        <v>0.306</v>
       </c>
       <c r="O30" t="n">
         <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>12.8</v>
@@ -5813,46 +5880,46 @@
         <v>43.1</v>
       </c>
       <c r="U30" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
         <v>14</v>
       </c>
       <c r="W30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5888,10 +5955,10 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV30" t="n">
         <v>5</v>
@@ -5906,13 +5973,13 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.227</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,10 +6029,10 @@
         <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
         <v>5.1</v>
@@ -5977,16 +6044,16 @@
         <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
         <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
         <v>29.8</v>
@@ -5998,19 +6065,19 @@
         <v>18.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
@@ -6022,7 +6089,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6043,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6052,7 +6119,7 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>20</v>
@@ -6064,19 +6131,19 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV31" t="n">
         <v>23</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6085,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2011-12</t>
+          <t>2012-03-18</t>
         </is>
       </c>
     </row>
